--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8C787E-5E34-C24C-A362-A1F9FEEBB1DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03FF106-D9F1-5749-8B1B-F39B222BA9E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -194,14 +194,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TILE_LENGTH,
-TILE_NUMBER,
-SCREEN_WIDTH等,
-surface,
-who_turn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ブロックの状態
 (Block)</t>
     <rPh sb="5" eb="7">
@@ -217,12 +209,6 @@
     <rPh sb="21" eb="22">
       <t xml:space="preserve">モツ </t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BLANK等,
-GREEN等,
-status</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -292,7 +278,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>BLANK等,
+status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TILE_LENGTH,
+TILE_NUMBER,
+SCREEN_WIDTH等,
+GREEN等,
+surface,
+who_turn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>make_board(TILE_NUMBER等定数),
+check_status(self.status)
 settable_area_exist_check(Block.selected),
 settable_check(Block.selected),
 change_status(Block.selected)</t>
@@ -683,7 +684,7 @@
   <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -710,21 +711,21 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="105">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="126">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -736,15 +737,15 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="84">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="105">
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>30</v>
@@ -752,24 +753,24 @@
     </row>
     <row r="6" spans="2:6" ht="42">
       <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="F8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:6">

--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03FF106-D9F1-5749-8B1B-F39B222BA9E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE42FA4-5C5E-7545-9ED3-76452A8694A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>プロパティ</t>
     <phoneticPr fontId="1"/>
@@ -232,27 +232,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>call_block(selected_shape),
-rotate_block(selected_direction)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>←このメソッドの引数の変数名はindexも付けた方がいいですか？</t>
-    <rPh sb="8" eb="10">
-      <t xml:space="preserve">ヒキスウ </t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t xml:space="preserve">ヘンスウメイ </t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t xml:space="preserve">ツケタ </t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t xml:space="preserve">ホウガ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>先輩のコメント</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">センパイノ </t>
@@ -303,6 +282,11 @@
     <rPh sb="23" eb="25">
       <t xml:space="preserve">テイスウ </t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>call_block(selected_shape_index),
+rotate_block(selected_direction)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -683,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DEE46DD-3150-964A-8845-D5DD08E670F2}">
   <dimension ref="B2:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -711,10 +695,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="126">
@@ -722,7 +706,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
@@ -745,10 +729,10 @@
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="42">
@@ -756,21 +740,18 @@
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="8" spans="2:6">
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:6">

--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE42FA4-5C5E-7545-9ED3-76452A8694A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029B1397-4D1A-9F48-936E-5099E919210A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -286,7 +286,8 @@
   </si>
   <si>
     <t>call_block(selected_shape_index),
-rotate_block(selected_direction)</t>
+rotate_block(selected_direction_index),
+show_selected()</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -667,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DEE46DD-3150-964A-8845-D5DD08E670F2}">
   <dimension ref="B2:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -735,7 +736,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="42">
+    <row r="6" spans="2:6" ht="63">
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>

--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029B1397-4D1A-9F48-936E-5099E919210A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0F0F54-9433-444F-8ECA-5C2D05C89CA6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -221,17 +221,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>input(),
-select_block(),
-select_position(pygame.mouse.get_pos()),
-cancel_selected(),
-skip()</t>
-    <rPh sb="21" eb="22">
-      <t xml:space="preserve">シュルイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>先輩のコメント</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">センパイノ </t>
@@ -288,6 +277,18 @@
     <t>call_block(selected_shape_index),
 rotate_block(selected_direction_index),
 show_selected()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input(),
+select_block(),
+select_position(pygame.mouse.get_pos()),
+cancel_selected(),
+skip(),
+score_check(self.remaining_blocks)</t>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">シュルイ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -669,7 +670,7 @@
   <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -696,10 +697,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
         <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="126">
@@ -707,14 +708,14 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="2:6" ht="105">
+    <row r="4" spans="2:6" ht="126">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -722,7 +723,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="105">
@@ -730,10 +731,10 @@
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="63">
@@ -741,10 +742,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -752,7 +753,7 @@
     </row>
     <row r="8" spans="2:6">
       <c r="F8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:6">

--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0F0F54-9433-444F-8ECA-5C2D05C89CA6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92C45CC-5250-AF4F-A8EA-FBFB806F058A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>プロパティ</t>
     <phoneticPr fontId="1"/>
@@ -280,11 +280,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>開発済み</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">カイハツズミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>input(),
 select_block(),
 select_position(pygame.mouse.get_pos()),
 cancel_selected(),
-skip(),
+pass(),
+block_used_check(self.remaining_blocks),
 score_check(self.remaining_blocks)</t>
     <rPh sb="21" eb="22">
       <t xml:space="preserve">シュルイ </t>
@@ -667,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DEE46DD-3150-964A-8845-D5DD08E670F2}">
-  <dimension ref="B2:F19"/>
+  <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -686,7 +698,10 @@
     <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -703,7 +718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="126">
+    <row r="3" spans="1:6" ht="126">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -715,7 +730,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="2:6" ht="126">
+    <row r="4" spans="1:6" ht="147">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -723,10 +738,10 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="105">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="105">
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
@@ -737,7 +752,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="63">
+    <row r="6" spans="1:6" ht="63">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
@@ -751,47 +769,47 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="1:6">
       <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="1:6">
       <c r="F9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="1:6">
       <c r="F10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="1:6">
       <c r="F11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="1:6">
       <c r="F12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="1:6">
       <c r="F13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="1:6">
       <c r="F14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="1:6">
       <c r="F15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="1:6">
       <c r="F16" t="s">
         <v>12</v>
       </c>

--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92C45CC-5250-AF4F-A8EA-FBFB806F058A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E02871-61EF-F545-BFE0-9B5B4C58E2D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>プロパティ</t>
     <phoneticPr fontId="1"/>
@@ -257,20 +257,6 @@
 GREEN等,
 surface,
 who_turn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>make_board(TILE_NUMBER等定数),
-check_status(self.status)
-settable_area_exist_check(Block.selected),
-settable_check(Block.selected),
-change_status(Block.selected)</t>
-    <rPh sb="22" eb="23">
-      <t xml:space="preserve">トウ </t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t xml:space="preserve">テイスウ </t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -300,6 +286,28 @@
 score_check(self.remaining_blocks)</t>
     <rPh sb="21" eb="22">
       <t xml:space="preserve">シュルイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>make_board(TILE_NUMBER等定数),
+check_status(self.status)
+settable_area_exist_check(Block.selected),
+settable_check(Block.selected),
+change_status(Block.selected),
+change_image(Block.selected)</t>
+    <rPh sb="22" eb="23">
+      <t xml:space="preserve">トウ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">テイスウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>change_imageはビューだから出来ればGameでやりたい</t>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">デキレバ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -682,7 +690,7 @@
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -700,7 +708,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -738,10 +746,10 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="105">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="126">
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
@@ -749,12 +757,15 @@
         <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="63">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
@@ -763,7 +774,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>

--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E02871-61EF-F545-BFE0-9B5B4C58E2D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F7C3E3-0757-334C-A3DC-6E692737F635}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>プロパティ</t>
     <phoneticPr fontId="1"/>
@@ -690,7 +690,7 @@
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -727,6 +727,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="126">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -750,6 +753,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="126">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>

--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F7C3E3-0757-334C-A3DC-6E692737F635}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B7AA30-EAF6-4442-A57E-D0029EA1040D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -690,7 +690,7 @@
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B7AA30-EAF6-4442-A57E-D0029EA1040D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384AE9ED-62EE-E341-8B01-CCCF63E28CD4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -277,19 +277,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>input(),
-select_block(),
-select_position(pygame.mouse.get_pos()),
-cancel_selected(),
-pass(),
-block_used_check(self.remaining_blocks),
-score_check(self.remaining_blocks)</t>
-    <rPh sb="21" eb="22">
-      <t xml:space="preserve">シュルイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>make_board(TILE_NUMBER等定数),
 check_status(self.status)
 settable_area_exist_check(Block.selected),
@@ -308,6 +295,19 @@
     <t>change_imageはビューだから出来ればGameでやりたい</t>
     <rPh sb="19" eb="21">
       <t xml:space="preserve">デキレバ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input(),
+select_block(),
+select_position(pygame.mouse.get_pos()),
+cancel_selected(),
+pass_my_turn(),
+block_used_check(self.remaining_blocks),
+score_check(self.remaining_blocks)</t>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">シュルイ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -749,7 +749,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="126">
@@ -763,10 +763,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="63">

--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384AE9ED-62EE-E341-8B01-CCCF63E28CD4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8CF099-8C57-A04A-B757-E9AED6C09BBF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>プロパティ</t>
     <phoneticPr fontId="1"/>
@@ -690,7 +690,7 @@
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -727,9 +727,6 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="126">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>

--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8CF099-8C57-A04A-B757-E9AED6C09BBF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629D52E8-D4E4-1E41-A515-20892F475AE8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -299,14 +299,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>input(),
-select_block(),
+    <t>select_block(),
 select_position(pygame.mouse.get_pos()),
 cancel_selected(),
 pass_my_turn(),
 block_used_check(self.remaining_blocks),
 score_check(self.remaining_blocks)</t>
-    <rPh sb="21" eb="22">
+    <rPh sb="12" eb="13">
       <t xml:space="preserve">シュルイ </t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -690,7 +689,7 @@
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -738,7 +737,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="147">
+    <row r="4" spans="1:6" ht="126">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>

--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629D52E8-D4E4-1E41-A515-20892F475AE8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7B43FB-A386-EF45-8CEE-3527D7451EE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>プロパティ</t>
     <phoneticPr fontId="1"/>
@@ -152,12 +152,6 @@
     <rPh sb="4" eb="6">
       <t xml:space="preserve">ジョウタイ </t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>color,
-remaining_blocks,
-passed</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -300,14 +294,33 @@
   </si>
   <si>
     <t>select_block(),
+check_input(),
 select_position(pygame.mouse.get_pos()),
 cancel_selected(),
 pass_my_turn(),
 block_used_check(self.remaining_blocks),
 score_check(self.remaining_blocks)</t>
-    <rPh sb="12" eb="13">
+    <rPh sb="11" eb="12">
       <t xml:space="preserve">シュルイ </t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>who_turnを使いたいのでGameから継承</t>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">ツカイタイ </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">ケイショウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>color,
+remaining_blocks,
+passed,
+selected_shape_index,
+selected_direction_index</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -689,7 +702,7 @@
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -707,7 +720,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -719,10 +732,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="126">
@@ -730,61 +743,64 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="126">
+    <row r="4" spans="1:6" ht="147">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="126">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="63">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="F8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -829,17 +845,17 @@
     </row>
     <row r="17" spans="6:6">
       <c r="F17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="6:6">
       <c r="F18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="6:6">
       <c r="F19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7B43FB-A386-EF45-8CEE-3527D7451EE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACC1E62-A5CF-AA49-B164-458B1F36C9A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -245,15 +245,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TILE_LENGTH,
-TILE_NUMBER,
-SCREEN_WIDTH等,
-GREEN等,
-surface,
-who_turn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>call_block(selected_shape_index),
 rotate_block(selected_direction_index),
 show_selected()</t>
@@ -317,10 +308,19 @@
   </si>
   <si>
     <t>color,
-remaining_blocks,
-passed,
 selected_shape_index,
 selected_direction_index</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TILE_LENGTH,
+TILE_NUMBER,
+SCREEN_WIDTH等,
+GREEN等,
+surface,
+who_turn,
+remaining_blocks,
+passed</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -720,7 +720,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -738,12 +738,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="126">
+    <row r="3" spans="1:6" ht="168">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>19</v>
@@ -755,18 +755,18 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="126">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -775,15 +775,15 @@
         <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="63">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
@@ -792,7 +792,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>

--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACC1E62-A5CF-AA49-B164-458B1F36C9A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B70AF04-386A-2B4D-80BE-043127F2177A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>プロパティ</t>
     <phoneticPr fontId="1"/>
@@ -297,16 +297,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>who_turnを使いたいのでGameから継承</t>
-    <rPh sb="9" eb="10">
-      <t xml:space="preserve">ツカイタイ </t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t xml:space="preserve">ケイショウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>color,
 selected_shape_index,
 selected_direction_index</t>
@@ -319,8 +309,8 @@
 GREEN等,
 surface,
 who_turn,
-remaining_blocks,
-passed</t>
+turn_passed_list,
+remaining_blocks</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -702,7 +692,7 @@
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -743,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>19</v>
@@ -755,14 +745,12 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="126">
       <c r="A5" t="s">

--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B70AF04-386A-2B4D-80BE-043127F2177A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57124187-D1DE-B844-89CD-FE72F70E1932}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -245,6 +245,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>TILE_LENGTH,
+TILE_NUMBER,
+SCREEN_WIDTH等,
+GREEN等,
+surface,
+who_turn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>call_block(selected_shape_index),
 rotate_block(selected_direction_index),
 show_selected()</t>
@@ -298,19 +307,10 @@
   </si>
   <si>
     <t>color,
+passed,
+remaining_blocks,
 selected_shape_index,
 selected_direction_index</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TILE_LENGTH,
-TILE_NUMBER,
-SCREEN_WIDTH等,
-GREEN等,
-surface,
-who_turn,
-turn_passed_list,
-remaining_blocks</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -692,7 +692,7 @@
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -710,7 +710,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -728,12 +728,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="168">
+    <row r="3" spans="1:6" ht="126">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>19</v>
@@ -745,16 +745,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="126">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -763,15 +763,15 @@
         <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="63">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
@@ -780,7 +780,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>

--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57124187-D1DE-B844-89CD-FE72F70E1932}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C245F8-4073-2B4C-9E89-59CFCA695D6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -293,9 +293,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>color,
+passed,
+remaining_blocks,
+selected_shape_index,
+selected_direction_index</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>select_block(),
 check_input(),
-select_position(pygame.mouse.get_pos()),
 cancel_selected(),
 pass_my_turn(),
 block_used_check(self.remaining_blocks),
@@ -303,14 +310,6 @@
     <rPh sb="11" eb="12">
       <t xml:space="preserve">シュルイ </t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>color,
-passed,
-remaining_blocks,
-selected_shape_index,
-selected_direction_index</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -692,7 +691,7 @@
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -740,15 +739,15 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="147">
+    <row r="4" spans="1:6" ht="126">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="E4" s="1"/>
     </row>

--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C245F8-4073-2B4C-9E89-59CFCA695D6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5505F18B-34F3-C94C-A88E-F67496193AC0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -206,15 +206,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>start_game(),
-force_quit(),
-check_passed(Player.passed)</t>
-    <rPh sb="10" eb="12">
-      <t xml:space="preserve">タテヨコ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>先輩のコメント</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">センパイノ </t>
@@ -309,6 +300,15 @@
 score_check(self.remaining_blocks)</t>
     <rPh sb="11" eb="12">
       <t xml:space="preserve">シュルイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>start(),
+force_quit(),
+check_passed(Player.passed)</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">タテヨコ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -691,7 +691,7 @@
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -709,7 +709,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -721,10 +721,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="126">
@@ -732,10 +732,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -744,42 +744,42 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="126">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="63">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="F8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6">

--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5505F18B-34F3-C94C-A88E-F67496193AC0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF7272F-A0A5-F74A-87A5-2902EFCB7096}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -305,7 +305,6 @@
   </si>
   <si>
     <t>start(),
-force_quit(),
 check_passed(Player.passed)</t>
     <rPh sb="5" eb="7">
       <t xml:space="preserve">タテヨコ </t>

--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF7272F-A0A5-F74A-87A5-2902EFCB7096}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B715FDD2-7AEC-0947-A615-EFB38F79EFDE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -284,14 +284,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>color,
-passed,
-remaining_blocks,
-selected_shape_index,
-selected_direction_index</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>select_block(),
 check_input(),
 cancel_selected(),
@@ -309,6 +301,14 @@
     <rPh sb="5" eb="7">
       <t xml:space="preserve">タテヨコ </t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>color,
+passed,
+used_blocks,
+selected_shape_index,
+selected_direction_index</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -690,7 +690,7 @@
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -734,7 +734,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -743,10 +743,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="E4" s="1"/>
     </row>

--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B715FDD2-7AEC-0947-A615-EFB38F79EFDE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211255DD-70F0-974A-B821-35C24B027C6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -284,18 +284,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>select_block(),
-check_input(),
-cancel_selected(),
-pass_my_turn(),
-block_used_check(self.remaining_blocks),
-score_check(self.remaining_blocks)</t>
-    <rPh sb="11" eb="12">
-      <t xml:space="preserve">シュルイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>start(),
 check_passed(Player.passed)</t>
     <rPh sb="5" eb="7">
@@ -309,6 +297,18 @@
 used_blocks,
 selected_shape_index,
 selected_direction_index</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>select_block(),
+check_input(),
+cancel_selected(),
+pass_my_turn(),
+block_usable_check(),
+score_check(self.remaining_blocks)</t>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">シュルイ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -690,7 +690,7 @@
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -734,7 +734,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -743,10 +743,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E4" s="1"/>
     </row>

--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211255DD-70F0-974A-B821-35C24B027C6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A74B9E5-5D43-A440-9C3B-530F71754A8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -284,14 +284,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>start(),
-check_passed(Player.passed)</t>
-    <rPh sb="5" eb="7">
-      <t xml:space="preserve">タテヨコ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>color,
 passed,
 used_blocks,
@@ -308,6 +300,13 @@
 score_check(self.remaining_blocks)</t>
     <rPh sb="11" eb="12">
       <t xml:space="preserve">シュルイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>start()</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">タテヨコ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -690,7 +689,7 @@
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -734,7 +733,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -743,10 +742,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E4" s="1"/>
     </row>

--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A74B9E5-5D43-A440-9C3B-530F71754A8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C525A110-C3E7-8442-B460-4856E972A1FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -231,11 +231,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BLANK等,
-status</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TILE_LENGTH,
 TILE_NUMBER,
 SCREEN_WIDTH等,
@@ -308,6 +303,12 @@
     <rPh sb="5" eb="7">
       <t xml:space="preserve">タテヨコ </t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BLANK等,
+TILE_NUMBER,
+status</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -689,7 +690,7 @@
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -707,7 +708,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -730,10 +731,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -742,33 +743,33 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="126">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="63">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
@@ -777,7 +778,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>

--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C525A110-C3E7-8442-B460-4856E972A1FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674DCD95-9893-2946-B20B-C0C1A5FF0A0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -308,6 +308,7 @@
   <si>
     <t>BLANK等,
 TILE_NUMBER,
+color_list,
 status</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -690,7 +691,7 @@
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674DCD95-9893-2946-B20B-C0C1A5FF0A0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD3006A-1B16-E44E-AF6D-893181F823AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -231,15 +231,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TILE_LENGTH,
-TILE_NUMBER,
-SCREEN_WIDTH等,
-GREEN等,
-surface,
-who_turn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>call_block(selected_shape_index),
 rotate_block(selected_direction_index),
 show_selected()</t>
@@ -306,9 +297,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>TILE_LENGTH,
+TILE_NUMBER,
+SCREEN_WIDTH等,
+GREEN等,
+COLOR_LIST,
+surface,
+who_turn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>BLANK等,
 TILE_NUMBER,
-color_list,
+COLOR_LIST,
 status</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -709,7 +710,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -727,15 +728,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="126">
+    <row r="3" spans="1:6" ht="147">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -744,16 +745,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="126">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -762,15 +763,15 @@
         <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="63">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
@@ -779,7 +780,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>

--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD3006A-1B16-E44E-AF6D-893181F823AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53338035-9136-F446-B431-69DB1622D06F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -290,13 +290,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>start()</t>
-    <rPh sb="5" eb="7">
-      <t xml:space="preserve">タテヨコ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TILE_LENGTH,
 TILE_NUMBER,
 SCREEN_WIDTH等,
@@ -311,6 +304,14 @@
 TILE_NUMBER,
 COLOR_LIST,
 status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>start(),
+play()</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">タテヨコ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -692,7 +693,7 @@
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -733,10 +734,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -760,7 +761,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>26</v>

--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53338035-9136-F446-B431-69DB1622D06F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00497FE1-C321-F54F-9E38-B672D5002C58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -308,7 +308,8 @@
   </si>
   <si>
     <t>start(),
-play()</t>
+play(),
+change_turn()</t>
     <rPh sb="5" eb="7">
       <t xml:space="preserve">タテヨコ </t>
     </rPh>
@@ -693,7 +694,7 @@
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00497FE1-C321-F54F-9E38-B672D5002C58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64542C9F-4F45-474A-ACE0-EDD464AC61B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>プロパティ</t>
     <phoneticPr fontId="1"/>
@@ -245,28 +245,6 @@
   </si>
   <si>
     <t>ok</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>make_board(TILE_NUMBER等定数),
-check_status(self.status)
-settable_area_exist_check(Block.selected),
-settable_check(Block.selected),
-change_status(Block.selected),
-change_image(Block.selected)</t>
-    <rPh sb="22" eb="23">
-      <t xml:space="preserve">トウ </t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t xml:space="preserve">テイスウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>change_imageはビューだから出来ればGameでやりたい</t>
-    <rPh sb="19" eb="21">
-      <t xml:space="preserve">デキレバ </t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -309,9 +287,24 @@
   <si>
     <t>start(),
 play(),
-change_turn()</t>
+change_turn(),
+change_image</t>
     <rPh sb="5" eb="7">
       <t xml:space="preserve">タテヨコ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>make_board(TILE_NUMBER等定数),
+check_status(self.status)
+settable_area_exist_check(Block.selected),
+settable_check(Block.selected),
+change_status(Block.selected)</t>
+    <rPh sb="22" eb="23">
+      <t xml:space="preserve">トウ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">テイスウ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -694,7 +687,7 @@
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -735,10 +728,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -747,14 +740,14 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="126">
+    <row r="5" spans="1:6" ht="105">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -762,14 +755,12 @@
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="63">
       <c r="A6" t="s">

--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64542C9F-4F45-474A-ACE0-EDD464AC61B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E84BC0-2BBD-A84A-B92F-A20482FAD55A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>プロパティ</t>
     <phoneticPr fontId="1"/>
@@ -305,6 +305,19 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t xml:space="preserve">テイスウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビュー部分はここで全て行う</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ブブン </t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">スベテ </t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">オコナウ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -687,7 +700,7 @@
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -733,7 +746,9 @@
       <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="126">
       <c r="B4" s="1" t="s">

--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E84BC0-2BBD-A84A-B92F-A20482FAD55A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86033E32-9189-DE45-9055-D36C1535F2E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>プロパティ</t>
     <phoneticPr fontId="1"/>
@@ -700,7 +700,7 @@
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -737,6 +737,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="147">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -751,6 +754,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="126">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>

--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86033E32-9189-DE45-9055-D36C1535F2E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95038E9F-4995-754C-83C7-1C0860B11045}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>プロパティ</t>
     <phoneticPr fontId="1"/>
@@ -192,23 +192,6 @@
 (Block)</t>
     <rPh sb="5" eb="7">
       <t xml:space="preserve">ジョウタイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DBとして同ファイルにa~uのarrayを持つ</t>
-    <rPh sb="5" eb="6">
-      <t xml:space="preserve">ドウ </t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t xml:space="preserve">モツ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>先輩のコメント</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">センパイノ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -253,18 +236,6 @@
 used_blocks,
 selected_shape_index,
 selected_direction_index</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>select_block(),
-check_input(),
-cancel_selected(),
-pass_my_turn(),
-block_usable_check(),
-score_check(self.remaining_blocks)</t>
-    <rPh sb="11" eb="12">
-      <t xml:space="preserve">シュルイ </t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -285,39 +256,97 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>start(),
-play(),
+    <t>make_board(),
+check_status(game)
+settable_area_exist_check(color, block_shape),
+settable_check(color, block_shape, x, y),
+change_status(color, block_shape, block_influence, x, y)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>select_block(board),
+check_input(board),
+cancel_selected(board, block, color),
+pass_my_turn(？),
+block_usable_check(board, block, color),
+score_check(？)</t>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">シュルイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>start(board),
+play(player_green, player_yellow, board, block, event),
 change_turn(),
-change_image</t>
-    <rPh sb="5" eb="7">
+change_image(board, block_shape, x, y)</t>
+    <rPh sb="5" eb="12">
       <t xml:space="preserve">タテヨコ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>make_board(TILE_NUMBER等定数),
-check_status(self.status)
-settable_area_exist_check(Block.selected),
-settable_check(Block.selected),
-change_status(Block.selected)</t>
-    <rPh sb="22" eb="23">
-      <t xml:space="preserve">トウ </t>
+    <t>・インスタンス生成時にcolorを渡す
+・ビュー部分はここで全て行う</t>
+    <rPh sb="7" eb="10">
+      <t xml:space="preserve">セイセイジニ </t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t xml:space="preserve">ワタス </t>
     </rPh>
     <rPh sb="23" eb="25">
-      <t xml:space="preserve">テイスウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ビュー部分はここで全て行う</t>
-    <rPh sb="3" eb="5">
       <t xml:space="preserve">ブブン </t>
     </rPh>
-    <rPh sb="9" eb="10">
+    <rPh sb="29" eb="30">
       <t xml:space="preserve">スベテ </t>
     </rPh>
-    <rPh sb="11" eb="12">
+    <rPh sb="31" eb="32">
       <t xml:space="preserve">オコナウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・インスタンス生成時にcolorを渡す
+・pass_my_turn()とscore_check()は未実装</t>
+    <rPh sb="6" eb="9">
+      <t xml:space="preserve">セイセイジ </t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">ワタス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・インスタンス生成時にgameを渡す</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・インスタンス生成時にselected_shape_indexとselected_direction_indexを渡す
+・DBとして同ファイルにa~uのarrayを持つ</t>
+    <rPh sb="7" eb="10">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">ドウ </t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t xml:space="preserve">モツ </t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>_x0000__x0007__x0003__x0004_</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先輩のコメント（オブジェクト化途中）</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">センパイノ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">トチュウ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -697,166 +726,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DEE46DD-3150-964A-8845-D5DD08E670F2}">
-  <dimension ref="A2:F19"/>
+  <dimension ref="B2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="76.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="2" spans="2:7">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="147">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="126">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="105">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="84">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="147">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="126">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="105">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="63">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="F8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="F9" t="s">
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="F10" t="s">
+    <row r="10" spans="2:7">
+      <c r="B10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="F11" t="s">
+    <row r="11" spans="2:7">
+      <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="F12" t="s">
+    <row r="12" spans="2:7">
+      <c r="B12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="F13" t="s">
+    <row r="13" spans="2:7">
+      <c r="B13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="F14" t="s">
+    <row r="14" spans="2:7">
+      <c r="B14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="F15" t="s">
+    <row r="15" spans="2:7">
+      <c r="B15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="F16" t="s">
+    <row r="16" spans="2:7">
+      <c r="B16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="6:6">
-      <c r="F17" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="6:6">
-      <c r="F18" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="6:6">
-      <c r="F19" t="s">
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
         <v>16</v>
       </c>
     </row>

--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95038E9F-4995-754C-83C7-1C0860B11045}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9343F85-F677-0345-84A5-FF98FD584D73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -729,7 +729,7 @@
   <dimension ref="B2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -782,38 +782,38 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="126">
+    <row r="4" spans="2:7" ht="105">
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="105">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="126">
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="84">

--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9343F85-F677-0345-84A5-FF98FD584D73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807224F3-E527-604A-BB63-2749587FBDC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -45,22 +45,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>初期設定
-(Game)</t>
-    <rPh sb="0" eb="4">
-      <t xml:space="preserve">ショキセッテイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤーの状態
-(Player)</t>
-    <rPh sb="6" eb="8">
-      <t xml:space="preserve">ジョウタイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>設計図？</t>
     <rPh sb="0" eb="3">
       <t xml:space="preserve">セッケイズ </t>
@@ -147,14 +131,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ボードの状態
-(Board)</t>
-    <rPh sb="4" eb="6">
-      <t xml:space="preserve">ジョウタイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ビュー操作用のクラスを作りたい（）</t>
     <rPh sb="3" eb="5">
       <t xml:space="preserve">ソウサ </t>
@@ -184,14 +160,6 @@
     <t>ブロックの中身ははっしゅでok</t>
     <rPh sb="5" eb="7">
       <t xml:space="preserve">ナカミ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブロックの状態
-(Block)</t>
-    <rPh sb="5" eb="7">
-      <t xml:space="preserve">ジョウタイ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -347,6 +315,29 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t xml:space="preserve">トチュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボード
+(Board)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー
+(Player)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロック
+(Block)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム全体
+(Game)</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ゼンタイ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -729,7 +720,7 @@
   <dimension ref="B2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -747,7 +738,7 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -759,138 +750,138 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="147">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="105">
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="126">
       <c r="B5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="84">
       <c r="B6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807224F3-E527-604A-BB63-2749587FBDC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2BF43EE-6751-CD4C-A6F7-4978E9DFEFAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -207,16 +208,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TILE_LENGTH,
-TILE_NUMBER,
-SCREEN_WIDTH等,
-GREEN等,
-COLOR_LIST,
-surface,
-who_turn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BLANK等,
 TILE_NUMBER,
 COLOR_LIST,
@@ -232,20 +223,83 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>select_block(board),
-check_input(board),
-cancel_selected(board, block, color),
-pass_my_turn(？),
-block_usable_check(board, block, color),
-score_check(？)</t>
-    <rPh sb="11" eb="12">
-      <t xml:space="preserve">シュルイ </t>
-    </rPh>
+    <t>・インスタンス生成時にcolorを渡す
+・pass_my_turn()とscore_check()は未実装</t>
+    <rPh sb="6" eb="9">
+      <t xml:space="preserve">セイセイジ </t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">ワタス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・インスタンス生成時にgameを渡す</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・インスタンス生成時にselected_shape_indexとselected_direction_indexを渡す
+・DBとして同ファイルにa~uのarrayを持つ</t>
+    <rPh sb="7" eb="10">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">ドウ </t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t xml:space="preserve">モツ </t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>_x0000__x0007__x0003__x0004_</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先輩のコメント（オブジェクト化途中）</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">センパイノ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">トチュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボード
+(Board)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー
+(Player)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロック
+(Block)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム全体
+(Game)</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ゼンタイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TILE_NUMBER,
+TILE_LENGTH,
+GREEN等,
+COLOR_LIST,
+SCREEN_WIDTH等,
+surface,
+TILE_IMAGES</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>start(board),
-play(player_green, player_yellow, board, block, event),
+play(board, block),
 change_turn(),
 change_image(board, block_shape, x, y)</t>
     <rPh sb="5" eb="12">
@@ -254,90 +308,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・インスタンス生成時にcolorを渡す
-・ビュー部分はここで全て行う</t>
-    <rPh sb="7" eb="10">
-      <t xml:space="preserve">セイセイジニ </t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t xml:space="preserve">ワタス </t>
-    </rPh>
-    <rPh sb="23" eb="25">
+    <t>・ビュー部分はここで全て行う</t>
+    <rPh sb="3" eb="5">
       <t xml:space="preserve">ブブン </t>
     </rPh>
-    <rPh sb="29" eb="30">
+    <rPh sb="9" eb="10">
       <t xml:space="preserve">スベテ </t>
     </rPh>
-    <rPh sb="31" eb="32">
+    <rPh sb="11" eb="12">
       <t xml:space="preserve">オコナウ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・インスタンス生成時にcolorを渡す
-・pass_my_turn()とscore_check()は未実装</t>
-    <rPh sb="6" eb="9">
-      <t xml:space="preserve">セイセイジ </t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t xml:space="preserve">ワタス </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・インスタンス生成時にgameを渡す</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・インスタンス生成時にselected_shape_indexとselected_direction_indexを渡す
-・DBとして同ファイルにa~uのarrayを持つ</t>
-    <rPh sb="7" eb="10">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t xml:space="preserve">ドウ </t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t xml:space="preserve">モツ </t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>_x0000__x0007__x0003__x0004_</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t/>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>先輩のコメント（オブジェクト化途中）</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">センパイノ </t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t xml:space="preserve">トチュウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボード
-(Board)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤー
-(Player)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブロック
-(Block)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム全体
-(Game)</t>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">ゼンタイ </t>
+    <t>start_my_turn(board),
+select_block(board),
+check_input(board),
+cancel_selected(board),
+pass_my_turn(？),
+score_check(？)</t>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">シュルイ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -719,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DEE46DD-3150-964A-8845-D5DD08E670F2}">
   <dimension ref="B2:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -761,16 +752,16 @@
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="105">
@@ -778,16 +769,16 @@
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="126">
@@ -795,16 +786,16 @@
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="84">
@@ -812,7 +803,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -821,12 +812,12 @@
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:7">

--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2BF43EE-6751-CD4C-A6F7-4978E9DFEFAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90838F05-F7C5-8B4F-BFFF-EE9206D01015}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
+    <workbookView xWindow="-780" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -710,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DEE46DD-3150-964A-8845-D5DD08E670F2}">
   <dimension ref="B2:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90838F05-F7C5-8B4F-BFFF-EE9206D01015}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF50F18-0E3C-DD42-B189-A7AEDEF50D84}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-780" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>プロパティ</t>
     <phoneticPr fontId="1"/>
@@ -42,125 +42,6 @@
   </si>
   <si>
     <t>クラス名</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>設計図？</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">セッケイズ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>切り方はむずかしい、１つのまとまり</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">キリカタハ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>責務次第</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">セキム </t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t xml:space="preserve">シダイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボードクラスが持つのが向きや位置（置いたあと）</t>
-    <rPh sb="7" eb="8">
-      <t xml:space="preserve">モツ </t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t xml:space="preserve">ムキ </t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t xml:space="preserve">イチ </t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t xml:space="preserve">オイタアト </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実際のゲームはボードが一個だからボード</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ジッサイノ </t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t xml:space="preserve">イッコ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>それぞれのマスが、どの色が置けるかを持てばひとつになる</t>
-    <rPh sb="11" eb="12">
-      <t xml:space="preserve">イロ </t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t xml:space="preserve">オケル </t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t xml:space="preserve">モテバ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>どのマスに何が置いてあるがでーたとしてある、どの色がどこに置けるかは都度計算する</t>
-    <rPh sb="5" eb="6">
-      <t xml:space="preserve">ナニガオイテアルガ </t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t xml:space="preserve">オケルカハ </t>
-    </rPh>
-    <rPh sb="34" eb="38">
-      <t xml:space="preserve">ツドケイサン </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>既に置いてあるマスは２重管理になってるから不具合でやすい</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">スデニオイテアル </t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t xml:space="preserve">フグアイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ビュー操作用のクラスを作りたい（）</t>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">ソウサ </t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t xml:space="preserve">ヨウノ </t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t xml:space="preserve">ツクリタ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>役割分割がクラス理由、オブジェクト指向の考え方</t>
-    <rPh sb="0" eb="4">
-      <t xml:space="preserve">ヤクワリブンカツ </t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t xml:space="preserve">シコウ </t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t xml:space="preserve">カンガエカタ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブロックの中身ははっしゅでok</t>
-    <rPh sb="5" eb="7">
-      <t xml:space="preserve">ナカミ </t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -214,14 +95,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>make_board(),
-check_status(game)
-settable_area_exist_check(color, block_shape),
-settable_check(color, block_shape, x, y),
-change_status(color, block_shape, block_influence, x, y)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・インスタンス生成時にcolorを渡す
 ・pass_my_turn()とscore_check()は未実装</t>
     <rPh sb="6" eb="9">
@@ -250,16 +123,6 @@
     </rPh>
     <rPh sb="57" eb="58">
       <t>_x0000__x0007__x0003__x0004_</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>先輩のコメント（オブジェクト化途中）</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">センパイノ </t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t xml:space="preserve">トチュウ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -293,21 +156,48 @@
 COLOR_LIST,
 SCREEN_WIDTH等,
 surface,
-TILE_IMAGES</t>
+TILE_IMAGES,
+current_player等</t>
+    <rPh sb="97" eb="98">
+      <t xml:space="preserve">トウ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>start(board),
 play(board, block),
+set_block_on_click_position(board, block),
+change_image(board, block_shape, x, y),
 change_turn(),
-change_image(board, block_shape, x, y)</t>
+score_check()</t>
     <rPh sb="5" eb="12">
       <t xml:space="preserve">タテヨコ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・ビュー部分はここで全て行う</t>
+    <t>pass_my_turn(game),
+start_my_turn(game, board),
+select_block(board),
+check_input(board),
+cancel_selected(game, board)</t>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">シュルイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>make_board(),
+check_status(game),
+any_block_settable_check(player),
+settable_area_exist_check(color, block_shape),
+settable_check(color, block_shape, x, y),
+change_status(color, block_shape, block_influence, x, y)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ビュー部分はここで全て行う
+・Colorのenum値も持つ</t>
     <rPh sb="3" eb="5">
       <t xml:space="preserve">ブブン </t>
     </rPh>
@@ -317,17 +207,14 @@
     <rPh sb="11" eb="12">
       <t xml:space="preserve">オコナウ </t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>start_my_turn(board),
-select_block(board),
-check_input(board),
-cancel_selected(board),
-pass_my_turn(？),
-score_check(？)</t>
-    <rPh sb="10" eb="11">
-      <t xml:space="preserve">シュルイ </t>
+    <rPh sb="15" eb="16">
+      <t>_x0000__x0003__x0002__x0004_	_x0001__x0008__x000B__x0001__x000D__x000F__x0001__x001C__x001A__x0001_</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t xml:space="preserve"> _x001C__x0001__x0000_</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t/>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -336,7 +223,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -349,14 +236,6 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -383,15 +262,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,7 +583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DEE46DD-3150-964A-8845-D5DD08E670F2}">
-  <dimension ref="B2:G19"/>
+  <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
@@ -728,7 +604,7 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -740,137 +616,77 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="168">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="126">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="105">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" ht="147">
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="105">
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="126">
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="84">
       <c r="B6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
         <v>13</v>
       </c>
     </row>

--- a/class_design.xlsx
+++ b/class_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF50F18-0E3C-DD42-B189-A7AEDEF50D84}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CF519A-207A-794D-AC5D-45105833D25D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -164,7 +164,53 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>start(board),
+    <t>pass_my_turn(game),
+start_my_turn(game, board),
+select_block(board),
+check_input(board),
+cancel_selected(game, board)</t>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">シュルイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>make_board(),
+check_status(game),
+any_block_settable_check(player),
+settable_area_exist_check(color, block_shape),
+settable_check(color, block_shape, x, y),
+change_status(color, block_shape, block_influence, x, y)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ビュー部分はここで全て行う
+・Colorのenum値も持つ</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ブブン </t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">スベテ </t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">オコナウ </t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>_x0000__x0003__x0002__x0004_	_x0001__x0008__x000B__x0001__x000D__x000F__x0001__x001C__x001A__x0001_</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t xml:space="preserve"> _x001C__x0001__x0000_</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question_player_number(),
+question_CP_number(),
+set_player_and_CP_number(),
+start(board),
 play(board, block),
 set_block_on_click_position(board, block),
 change_image(board, block_shape, x, y),
@@ -172,49 +218,6 @@
 score_check()</t>
     <rPh sb="5" eb="12">
       <t xml:space="preserve">タテヨコ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pass_my_turn(game),
-start_my_turn(game, board),
-select_block(board),
-check_input(board),
-cancel_selected(game, board)</t>
-    <rPh sb="10" eb="11">
-      <t xml:space="preserve">シュルイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>make_board(),
-check_status(game),
-any_block_settable_check(player),
-settable_area_exist_check(color, block_shape),
-settable_check(color, block_shape, x, y),
-change_status(color, block_shape, block_influence, x, y)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ビュー部分はここで全て行う
-・Colorのenum値も持つ</t>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">ブブン </t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t xml:space="preserve">スベテ </t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t xml:space="preserve">オコナウ </t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>_x0000__x0003__x0002__x0004_	_x0001__x0008__x000B__x0001__x000D__x000F__x0001__x001C__x001A__x0001_</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t xml:space="preserve"> _x001C__x0001__x0000_</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t/>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -586,7 +589,7 @@
   <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -622,7 +625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="168">
+    <row r="3" spans="2:7" ht="189">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -633,10 +636,10 @@
         <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="126">
@@ -650,7 +653,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
@@ -667,7 +670,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
